--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pf4-Thbd.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pf4-Thbd.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Thbd</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.197427</v>
+        <v>4.326658</v>
       </c>
       <c r="H2">
-        <v>0.394854</v>
+        <v>8.653316</v>
       </c>
       <c r="I2">
-        <v>0.000452391028090995</v>
+        <v>0.007049713162306648</v>
       </c>
       <c r="J2">
-        <v>0.0003016395050625994</v>
+        <v>0.004721073584627792</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.3131355</v>
+        <v>43.1011505</v>
       </c>
       <c r="N2">
-        <v>88.626271</v>
+        <v>86.20230100000001</v>
       </c>
       <c r="O2">
-        <v>0.3703811871594727</v>
+        <v>0.4013145655884081</v>
       </c>
       <c r="P2">
-        <v>0.2883888216544467</v>
+        <v>0.3190709442524837</v>
       </c>
       <c r="Q2">
-        <v>8.7486094023585</v>
+        <v>186.483937620029</v>
       </c>
       <c r="R2">
-        <v>34.994437609434</v>
+        <v>745.9357504801161</v>
       </c>
       <c r="S2">
-        <v>0.0001675571260446371</v>
+        <v>0.002829152575253975</v>
       </c>
       <c r="T2">
-        <v>8.698946142943354E-05</v>
+        <v>0.001506357406532648</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.197427</v>
+        <v>4.326658</v>
       </c>
       <c r="H3">
-        <v>0.394854</v>
+        <v>8.653316</v>
       </c>
       <c r="I3">
-        <v>0.000452391028090995</v>
+        <v>0.007049713162306648</v>
       </c>
       <c r="J3">
-        <v>0.0003016395050625994</v>
+        <v>0.004721073584627792</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>44.872277</v>
       </c>
       <c r="O3">
-        <v>0.1250182144134117</v>
+        <v>0.1392685047639097</v>
       </c>
       <c r="P3">
-        <v>0.1460138505543343</v>
+        <v>0.1660911556542906</v>
       </c>
       <c r="Q3">
-        <v>2.952999677093</v>
+        <v>64.71566542008867</v>
       </c>
       <c r="R3">
-        <v>17.717998062558</v>
+        <v>388.2939925205321</v>
       </c>
       <c r="S3">
-        <v>5.655711854858379E-05</v>
+        <v>0.0009818030111289004</v>
       </c>
       <c r="T3">
-        <v>4.404354561349374E-05</v>
+        <v>0.0007841285675997742</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.197427</v>
+        <v>4.326658</v>
       </c>
       <c r="H4">
-        <v>0.394854</v>
+        <v>8.653316</v>
       </c>
       <c r="I4">
-        <v>0.000452391028090995</v>
+        <v>0.007049713162306648</v>
       </c>
       <c r="J4">
-        <v>0.0003016395050625994</v>
+        <v>0.004721073584627792</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.891776</v>
+        <v>21.215307</v>
       </c>
       <c r="N4">
-        <v>44.675328</v>
+        <v>63.645921</v>
       </c>
       <c r="O4">
-        <v>0.124469496720514</v>
+        <v>0.197535602037577</v>
       </c>
       <c r="P4">
-        <v>0.1453729808731985</v>
+        <v>0.2355803020999286</v>
       </c>
       <c r="Q4">
-        <v>2.940038660352</v>
+        <v>91.79137775400599</v>
       </c>
       <c r="R4">
-        <v>17.640231962112</v>
+        <v>550.748266524036</v>
       </c>
       <c r="S4">
-        <v>5.630888358736207E-05</v>
+        <v>0.001392569333708474</v>
       </c>
       <c r="T4">
-        <v>4.385023400006632E-05</v>
+        <v>0.001112191941302608</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.197427</v>
+        <v>4.326658</v>
       </c>
       <c r="H5">
-        <v>0.394854</v>
+        <v>8.653316</v>
       </c>
       <c r="I5">
-        <v>0.000452391028090995</v>
+        <v>0.007049713162306648</v>
       </c>
       <c r="J5">
-        <v>0.0003016395050625994</v>
+        <v>0.004721073584627792</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.297570499999999</v>
+        <v>8.932031500000001</v>
       </c>
       <c r="N5">
-        <v>14.595141</v>
+        <v>17.864063</v>
       </c>
       <c r="O5">
-        <v>0.06099507052869112</v>
+        <v>0.08316609416828624</v>
       </c>
       <c r="P5">
-        <v>0.04749241356290961</v>
+        <v>0.06612240489492104</v>
       </c>
       <c r="Q5">
-        <v>1.4407374511035</v>
+        <v>38.64584554572701</v>
       </c>
       <c r="R5">
-        <v>5.762949804413999</v>
+        <v>154.583382182908</v>
       </c>
       <c r="S5">
-        <v>2.759362266495733E-05</v>
+        <v>0.0005862971087158017</v>
       </c>
       <c r="T5">
-        <v>1.432558812134433E-05</v>
+        <v>0.0003121687391014752</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.197427</v>
+        <v>4.326658</v>
       </c>
       <c r="H6">
-        <v>0.394854</v>
+        <v>8.653316</v>
       </c>
       <c r="I6">
-        <v>0.000452391028090995</v>
+        <v>0.007049713162306648</v>
       </c>
       <c r="J6">
-        <v>0.0003016395050625994</v>
+        <v>0.004721073584627792</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>29.34831033333333</v>
+        <v>7.405844333333333</v>
       </c>
       <c r="N6">
-        <v>88.04493099999999</v>
+        <v>22.217533</v>
       </c>
       <c r="O6">
-        <v>0.2453011257211672</v>
+        <v>0.06895577419556446</v>
       </c>
       <c r="P6">
-        <v>0.2864971482748841</v>
+        <v>0.0822364269982853</v>
       </c>
       <c r="Q6">
-        <v>5.794148864178999</v>
+        <v>32.04255563157133</v>
       </c>
       <c r="R6">
-        <v>34.76489318507399</v>
+        <v>192.255333789428</v>
       </c>
       <c r="S6">
-        <v>0.0001109720284568773</v>
+        <v>0.0004861184289635159</v>
       </c>
       <c r="T6">
-        <v>8.641885800748219E-05</v>
+        <v>0.0003882442231957766</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.197427</v>
+        <v>4.326658</v>
       </c>
       <c r="H7">
-        <v>0.394854</v>
+        <v>8.653316</v>
       </c>
       <c r="I7">
-        <v>0.000452391028090995</v>
+        <v>0.007049713162306648</v>
       </c>
       <c r="J7">
-        <v>0.0003016395050625994</v>
+        <v>0.004721073584627792</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.833753666666667</v>
+        <v>11.78815666666667</v>
       </c>
       <c r="N7">
-        <v>26.501261</v>
+        <v>35.36447</v>
       </c>
       <c r="O7">
-        <v>0.07383490545674307</v>
+        <v>0.1097594592462545</v>
       </c>
       <c r="P7">
-        <v>0.08623478508022686</v>
+        <v>0.1308987661000909</v>
       </c>
       <c r="Q7">
-        <v>1.744021485149</v>
+        <v>51.00332234708667</v>
       </c>
       <c r="R7">
-        <v>10.464128910894</v>
+        <v>306.01993408252</v>
       </c>
       <c r="S7">
-        <v>3.340224878857741E-05</v>
+        <v>0.0007737727045359803</v>
       </c>
       <c r="T7">
-        <v>2.601181789077926E-05</v>
+        <v>0.0006179827068955112</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>3.752158</v>
       </c>
       <c r="I8">
-        <v>0.002865941360907832</v>
+        <v>0.002037880633632562</v>
       </c>
       <c r="J8">
-        <v>0.002866373601474653</v>
+        <v>0.002047101252184694</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>44.3131355</v>
+        <v>43.1011505</v>
       </c>
       <c r="N8">
-        <v>88.626271</v>
+        <v>86.20230100000001</v>
       </c>
       <c r="O8">
-        <v>0.3703811871594727</v>
+        <v>0.4013145655884081</v>
       </c>
       <c r="P8">
-        <v>0.2883888216544467</v>
+        <v>0.3190709442524837</v>
       </c>
       <c r="Q8">
-        <v>55.42329529046967</v>
+        <v>53.90744221925967</v>
       </c>
       <c r="R8">
-        <v>332.539771742818</v>
+        <v>323.444653315558</v>
       </c>
       <c r="S8">
-        <v>0.001061490763582478</v>
+        <v>0.0008178311812072816</v>
       </c>
       <c r="T8">
-        <v>0.0008266301053506877</v>
+        <v>0.000653170529515012</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>3.752158</v>
       </c>
       <c r="I9">
-        <v>0.002865941360907832</v>
+        <v>0.002037880633632562</v>
       </c>
       <c r="J9">
-        <v>0.002866373601474653</v>
+        <v>0.002047101252184694</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>44.872277</v>
       </c>
       <c r="O9">
-        <v>0.1250182144134117</v>
+        <v>0.1392685047639097</v>
       </c>
       <c r="P9">
-        <v>0.1460138505543343</v>
+        <v>0.1660911556542906</v>
       </c>
       <c r="Q9">
         <v>18.70754145819622</v>
@@ -1013,10 +1013,10 @@
         <v>168.367873123766</v>
       </c>
       <c r="S9">
-        <v>0.0003582948715542403</v>
+        <v>0.0002838125887333358</v>
       </c>
       <c r="T9">
-        <v>0.0004185302466786089</v>
+        <v>0.0003400054127167011</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>3.752158</v>
       </c>
       <c r="I10">
-        <v>0.002865941360907832</v>
+        <v>0.002037880633632562</v>
       </c>
       <c r="J10">
-        <v>0.002866373601474653</v>
+        <v>0.002047101252184694</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.891776</v>
+        <v>21.215307</v>
       </c>
       <c r="N10">
-        <v>44.675328</v>
+        <v>63.645921</v>
       </c>
       <c r="O10">
-        <v>0.124469496720514</v>
+        <v>0.197535602037577</v>
       </c>
       <c r="P10">
-        <v>0.1453729808731985</v>
+        <v>0.2355803020999286</v>
       </c>
       <c r="Q10">
-        <v>18.62543215086933</v>
+        <v>26.534394627502</v>
       </c>
       <c r="R10">
-        <v>167.628889357824</v>
+        <v>238.809551647518</v>
       </c>
       <c r="S10">
-        <v>0.0003567222788227028</v>
+        <v>0.0004025539778453271</v>
       </c>
       <c r="T10">
-        <v>0.0004166932747426158</v>
+        <v>0.0004822567314188124</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1107,10 +1107,10 @@
         <v>3.752158</v>
       </c>
       <c r="I11">
-        <v>0.002865941360907832</v>
+        <v>0.002037880633632562</v>
       </c>
       <c r="J11">
-        <v>0.002866373601474653</v>
+        <v>0.002047101252184694</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.297570499999999</v>
+        <v>8.932031500000001</v>
       </c>
       <c r="N11">
-        <v>14.595141</v>
+        <v>17.864063</v>
       </c>
       <c r="O11">
-        <v>0.06099507052869112</v>
+        <v>0.08316609416828624</v>
       </c>
       <c r="P11">
-        <v>0.04749241356290961</v>
+        <v>0.06612240489492104</v>
       </c>
       <c r="Q11">
-        <v>9.127212510712999</v>
+        <v>11.17146448299233</v>
       </c>
       <c r="R11">
-        <v>54.76327506427799</v>
+        <v>67.02878689795401</v>
       </c>
       <c r="S11">
-        <v>0.0001748082954396662</v>
+        <v>0.0001694825726804125</v>
       </c>
       <c r="T11">
-        <v>0.0001361310005070409</v>
+        <v>0.0001353592578578562</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1169,10 +1169,10 @@
         <v>3.752158</v>
       </c>
       <c r="I12">
-        <v>0.002865941360907832</v>
+        <v>0.002037880633632562</v>
       </c>
       <c r="J12">
-        <v>0.002866373601474653</v>
+        <v>0.002047101252184694</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>29.34831033333333</v>
+        <v>7.405844333333333</v>
       </c>
       <c r="N12">
-        <v>88.04493099999999</v>
+        <v>22.217533</v>
       </c>
       <c r="O12">
-        <v>0.2453011257211672</v>
+        <v>0.06895577419556446</v>
       </c>
       <c r="P12">
-        <v>0.2864971482748841</v>
+        <v>0.0822364269982853</v>
       </c>
       <c r="Q12">
-        <v>36.70649913456644</v>
+        <v>9.262632687357112</v>
       </c>
       <c r="R12">
-        <v>330.3584922110979</v>
+        <v>83.363694186214</v>
       </c>
       <c r="S12">
-        <v>0.0007030186420815451</v>
+        <v>0.0001405236368102808</v>
       </c>
       <c r="T12">
-        <v>0.0008212078627128971</v>
+        <v>0.000168346292683385</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1231,10 +1231,10 @@
         <v>3.752158</v>
       </c>
       <c r="I13">
-        <v>0.002865941360907832</v>
+        <v>0.002037880633632562</v>
       </c>
       <c r="J13">
-        <v>0.002866373601474653</v>
+        <v>0.002047101252184694</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.833753666666667</v>
+        <v>11.78815666666667</v>
       </c>
       <c r="N13">
-        <v>26.501261</v>
+        <v>35.36447</v>
       </c>
       <c r="O13">
-        <v>0.07383490545674307</v>
+        <v>0.1097594592462545</v>
       </c>
       <c r="P13">
-        <v>0.08623478508022686</v>
+        <v>0.1308987661000909</v>
       </c>
       <c r="Q13">
-        <v>11.04854649680422</v>
+        <v>14.74367544736222</v>
       </c>
       <c r="R13">
-        <v>99.43691847123799</v>
+        <v>132.69307902626</v>
       </c>
       <c r="S13">
-        <v>0.0002116065094271993</v>
+        <v>0.0002236766763559245</v>
       </c>
       <c r="T13">
-        <v>0.0002471811114828025</v>
+        <v>0.0002679630279929275</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>262.0776013333333</v>
+        <v>109.0779523333333</v>
       </c>
       <c r="H14">
-        <v>786.232804</v>
+        <v>327.233857</v>
       </c>
       <c r="I14">
-        <v>0.6005336428492992</v>
+        <v>0.17772800075295</v>
       </c>
       <c r="J14">
-        <v>0.6006242151847004</v>
+        <v>0.1785321509440506</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>44.3131355</v>
+        <v>43.1011505</v>
       </c>
       <c r="N14">
-        <v>88.626271</v>
+        <v>86.20230100000001</v>
       </c>
       <c r="O14">
-        <v>0.3703811871594727</v>
+        <v>0.4013145655884081</v>
       </c>
       <c r="P14">
-        <v>0.2883888216544467</v>
+        <v>0.3190709442524837</v>
       </c>
       <c r="Q14">
-        <v>11613.48025939898</v>
+        <v>4701.385239750826</v>
       </c>
       <c r="R14">
-        <v>69680.88155639388</v>
+        <v>28208.31143850496</v>
       </c>
       <c r="S14">
-        <v>0.2224263635677262</v>
+        <v>0.07132483541506639</v>
       </c>
       <c r="T14">
-        <v>0.1732133096742426</v>
+        <v>0.05696442198114517</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>262.0776013333333</v>
+        <v>109.0779523333333</v>
       </c>
       <c r="H15">
-        <v>786.232804</v>
+        <v>327.233857</v>
       </c>
       <c r="I15">
-        <v>0.6005336428492992</v>
+        <v>0.17772800075295</v>
       </c>
       <c r="J15">
-        <v>0.6006242151847004</v>
+        <v>0.1785321509440506</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>44.872277</v>
       </c>
       <c r="O15">
-        <v>0.1250182144134117</v>
+        <v>0.1392685047639097</v>
       </c>
       <c r="P15">
-        <v>0.1460138505543343</v>
+        <v>0.1660911556542906</v>
       </c>
       <c r="Q15">
-        <v>3920.006240841634</v>
+        <v>1631.525363898043</v>
       </c>
       <c r="R15">
-        <v>35280.05616757471</v>
+        <v>14683.72827508239</v>
       </c>
       <c r="S15">
-        <v>0.07507764372420092</v>
+        <v>0.02475191291954236</v>
       </c>
       <c r="T15">
-        <v>0.08769945439529316</v>
+        <v>0.02965261127174361</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>262.0776013333333</v>
+        <v>109.0779523333333</v>
       </c>
       <c r="H16">
-        <v>786.232804</v>
+        <v>327.233857</v>
       </c>
       <c r="I16">
-        <v>0.6005336428492992</v>
+        <v>0.17772800075295</v>
       </c>
       <c r="J16">
-        <v>0.6006242151847004</v>
+        <v>0.1785321509440506</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.891776</v>
+        <v>21.215307</v>
       </c>
       <c r="N16">
-        <v>44.675328</v>
+        <v>63.645921</v>
       </c>
       <c r="O16">
-        <v>0.124469496720514</v>
+        <v>0.197535602037577</v>
       </c>
       <c r="P16">
-        <v>0.1453729808731985</v>
+        <v>0.2355803020999286</v>
       </c>
       <c r="Q16">
-        <v>3902.800933673302</v>
+        <v>2314.122245683033</v>
       </c>
       <c r="R16">
-        <v>35125.20840305971</v>
+        <v>20827.1002111473</v>
       </c>
       <c r="S16">
-        <v>0.07474812028918919</v>
+        <v>0.03510760762766892</v>
       </c>
       <c r="T16">
-        <v>0.08731453254602532</v>
+        <v>0.0420586580539495</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,13 +1458,13 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>262.0776013333333</v>
+        <v>109.0779523333333</v>
       </c>
       <c r="H17">
-        <v>786.232804</v>
+        <v>327.233857</v>
       </c>
       <c r="I17">
-        <v>0.6005336428492992</v>
+        <v>0.17772800075295</v>
       </c>
       <c r="J17">
-        <v>0.6006242151847004</v>
+        <v>0.1785321509440506</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.297570499999999</v>
+        <v>8.932031500000001</v>
       </c>
       <c r="N17">
-        <v>14.595141</v>
+        <v>17.864063</v>
       </c>
       <c r="O17">
-        <v>0.06099507052869112</v>
+        <v>0.08316609416828624</v>
       </c>
       <c r="P17">
-        <v>0.04749241356290961</v>
+        <v>0.06612240489492104</v>
       </c>
       <c r="Q17">
-        <v>1912.529772200894</v>
+        <v>974.2877061968319</v>
       </c>
       <c r="R17">
-        <v>11475.17863320536</v>
+        <v>5845.726237180991</v>
       </c>
       <c r="S17">
-        <v>0.03662959190044481</v>
+        <v>0.01478094364696109</v>
       </c>
       <c r="T17">
-        <v>0.0285250936234498</v>
+        <v>0.01180497517148367</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>262.0776013333333</v>
+        <v>109.0779523333333</v>
       </c>
       <c r="H18">
-        <v>786.232804</v>
+        <v>327.233857</v>
       </c>
       <c r="I18">
-        <v>0.6005336428492992</v>
+        <v>0.17772800075295</v>
       </c>
       <c r="J18">
-        <v>0.6006242151847004</v>
+        <v>0.1785321509440506</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>29.34831033333333</v>
+        <v>7.405844333333333</v>
       </c>
       <c r="N18">
-        <v>88.04493099999999</v>
+        <v>22.217533</v>
       </c>
       <c r="O18">
-        <v>0.2453011257211672</v>
+        <v>0.06895577419556446</v>
       </c>
       <c r="P18">
-        <v>0.2864971482748841</v>
+        <v>0.0822364269982853</v>
       </c>
       <c r="Q18">
-        <v>7691.53477534628</v>
+        <v>807.8143351794201</v>
       </c>
       <c r="R18">
-        <v>69223.81297811652</v>
+        <v>7270.329016614781</v>
       </c>
       <c r="S18">
-        <v>0.1473115786243665</v>
+        <v>0.01225537188814953</v>
       </c>
       <c r="T18">
-        <v>0.172077124835257</v>
+        <v>0.01468184619795727</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,14 +1582,14 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
         <v>3</v>
       </c>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>262.0776013333333</v>
+        <v>109.0779523333333</v>
       </c>
       <c r="H19">
-        <v>786.232804</v>
+        <v>327.233857</v>
       </c>
       <c r="I19">
-        <v>0.6005336428492992</v>
+        <v>0.17772800075295</v>
       </c>
       <c r="J19">
-        <v>0.6006242151847004</v>
+        <v>0.1785321509440506</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.833753666666667</v>
+        <v>11.78815666666667</v>
       </c>
       <c r="N19">
-        <v>26.501261</v>
+        <v>35.36447</v>
       </c>
       <c r="O19">
-        <v>0.07383490545674307</v>
+        <v>0.1097594592462545</v>
       </c>
       <c r="P19">
-        <v>0.08623478508022686</v>
+        <v>0.1308987661000909</v>
       </c>
       <c r="Q19">
-        <v>2315.128971729539</v>
+        <v>1285.827990984532</v>
       </c>
       <c r="R19">
-        <v>20836.16074556584</v>
+        <v>11572.45191886079</v>
       </c>
       <c r="S19">
-        <v>0.04434034474337151</v>
+        <v>0.0195073292555617</v>
       </c>
       <c r="T19">
-        <v>0.05179470011043257</v>
+        <v>0.02336963826777141</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G20">
-        <v>1.770183</v>
+        <v>3.9665605</v>
       </c>
       <c r="H20">
-        <v>5.310549</v>
+        <v>7.933121</v>
       </c>
       <c r="I20">
-        <v>0.004056258299418022</v>
+        <v>0.006462982229225337</v>
       </c>
       <c r="J20">
-        <v>0.004056870063290943</v>
+        <v>0.004328149809478357</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>44.3131355</v>
+        <v>43.1011505</v>
       </c>
       <c r="N20">
-        <v>88.626271</v>
+        <v>86.20230100000001</v>
       </c>
       <c r="O20">
-        <v>0.3703811871594727</v>
+        <v>0.4013145655884081</v>
       </c>
       <c r="P20">
-        <v>0.2883888216544467</v>
+        <v>0.3190709442524837</v>
       </c>
       <c r="Q20">
-        <v>78.4423591387965</v>
+        <v>170.9633210778553</v>
       </c>
       <c r="R20">
-        <v>470.654154832779</v>
+        <v>683.853284311421</v>
       </c>
       <c r="S20">
-        <v>0.001502361764363911</v>
+        <v>0.002593688905727168</v>
       </c>
       <c r="T20">
-        <v>0.001169955977157675</v>
+        <v>0.001380986846576467</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G21">
-        <v>1.770183</v>
+        <v>3.9665605</v>
       </c>
       <c r="H21">
-        <v>5.310549</v>
+        <v>7.933121</v>
       </c>
       <c r="I21">
-        <v>0.004056258299418022</v>
+        <v>0.006462982229225337</v>
       </c>
       <c r="J21">
-        <v>0.004056870063290943</v>
+        <v>0.004328149809478357</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>44.872277</v>
       </c>
       <c r="O21">
-        <v>0.1250182144134117</v>
+        <v>0.1392685047639097</v>
       </c>
       <c r="P21">
-        <v>0.1460138505543343</v>
+        <v>0.1660911556542906</v>
       </c>
       <c r="Q21">
-        <v>26.477380638897</v>
+        <v>59.32953383108617</v>
       </c>
       <c r="R21">
-        <v>238.296425750073</v>
+        <v>355.977202986517</v>
       </c>
       <c r="S21">
-        <v>0.0005071061697928231</v>
+        <v>0.0009000898713799325</v>
       </c>
       <c r="T21">
-        <v>0.0005923592191397163</v>
+        <v>0.0007188674037011578</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G22">
-        <v>1.770183</v>
+        <v>3.9665605</v>
       </c>
       <c r="H22">
-        <v>5.310549</v>
+        <v>7.933121</v>
       </c>
       <c r="I22">
-        <v>0.004056258299418022</v>
+        <v>0.006462982229225337</v>
       </c>
       <c r="J22">
-        <v>0.004056870063290943</v>
+        <v>0.004328149809478357</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>14.891776</v>
+        <v>21.215307</v>
       </c>
       <c r="N22">
-        <v>44.675328</v>
+        <v>63.645921</v>
       </c>
       <c r="O22">
-        <v>0.124469496720514</v>
+        <v>0.197535602037577</v>
       </c>
       <c r="P22">
-        <v>0.1453729808731985</v>
+        <v>0.2355803020999286</v>
       </c>
       <c r="Q22">
-        <v>26.361168715008</v>
+        <v>84.1517987415735</v>
       </c>
       <c r="R22">
-        <v>237.250518435072</v>
+        <v>504.910792449441</v>
       </c>
       <c r="S22">
-        <v>0.0005048804290969692</v>
+        <v>0.001276669085608188</v>
       </c>
       <c r="T22">
-        <v>0.0005897592941158457</v>
+        <v>0.00101962683965066</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G23">
-        <v>1.770183</v>
+        <v>3.9665605</v>
       </c>
       <c r="H23">
-        <v>5.310549</v>
+        <v>7.933121</v>
       </c>
       <c r="I23">
-        <v>0.004056258299418022</v>
+        <v>0.006462982229225337</v>
       </c>
       <c r="J23">
-        <v>0.004056870063290943</v>
+        <v>0.004328149809478357</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>7.297570499999999</v>
+        <v>8.932031500000001</v>
       </c>
       <c r="N23">
-        <v>14.595141</v>
+        <v>17.864063</v>
       </c>
       <c r="O23">
-        <v>0.06099507052869112</v>
+        <v>0.08316609416828624</v>
       </c>
       <c r="P23">
-        <v>0.04749241356290961</v>
+        <v>0.06612240489492104</v>
       </c>
       <c r="Q23">
-        <v>12.9180352404015</v>
+        <v>35.42944333265575</v>
       </c>
       <c r="R23">
-        <v>77.50821144240899</v>
+        <v>141.717773330623</v>
       </c>
       <c r="S23">
-        <v>0.000247411761055591</v>
+        <v>0.0005375009886837149</v>
       </c>
       <c r="T23">
-        <v>0.0001926705508168007</v>
+        <v>0.0002861876741482032</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G24">
-        <v>1.770183</v>
+        <v>3.9665605</v>
       </c>
       <c r="H24">
-        <v>5.310549</v>
+        <v>7.933121</v>
       </c>
       <c r="I24">
-        <v>0.004056258299418022</v>
+        <v>0.006462982229225337</v>
       </c>
       <c r="J24">
-        <v>0.004056870063290943</v>
+        <v>0.004328149809478357</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>29.34831033333333</v>
+        <v>7.405844333333333</v>
       </c>
       <c r="N24">
-        <v>88.04493099999999</v>
+        <v>22.217533</v>
       </c>
       <c r="O24">
-        <v>0.2453011257211672</v>
+        <v>0.06895577419556446</v>
       </c>
       <c r="P24">
-        <v>0.2864971482748841</v>
+        <v>0.0822364269982853</v>
       </c>
       <c r="Q24">
-        <v>51.951880030791</v>
+        <v>29.37572960174883</v>
       </c>
       <c r="R24">
-        <v>467.5669202771189</v>
+        <v>176.254377610493</v>
       </c>
       <c r="S24">
-        <v>0.000995004727063068</v>
+        <v>0.0004456599432284082</v>
       </c>
       <c r="T24">
-        <v>0.001162281704054603</v>
+        <v>0.0003559315758448093</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G25">
-        <v>1.770183</v>
+        <v>3.9665605</v>
       </c>
       <c r="H25">
-        <v>5.310549</v>
+        <v>7.933121</v>
       </c>
       <c r="I25">
-        <v>0.004056258299418022</v>
+        <v>0.006462982229225337</v>
       </c>
       <c r="J25">
-        <v>0.004056870063290943</v>
+        <v>0.004328149809478357</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.833753666666667</v>
+        <v>11.78815666666667</v>
       </c>
       <c r="N25">
-        <v>26.501261</v>
+        <v>35.36447</v>
       </c>
       <c r="O25">
-        <v>0.07383490545674307</v>
+        <v>0.1097594592462545</v>
       </c>
       <c r="P25">
-        <v>0.08623478508022686</v>
+        <v>0.1308987661000909</v>
       </c>
       <c r="Q25">
-        <v>15.637360566921</v>
+        <v>46.75843660181167</v>
       </c>
       <c r="R25">
-        <v>140.736245102289</v>
+        <v>280.55061961087</v>
       </c>
       <c r="S25">
-        <v>0.000299493448045659</v>
+        <v>0.0007093734345979252</v>
       </c>
       <c r="T25">
-        <v>0.0003498433180063008</v>
+        <v>0.0005665494695570604</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,10 +2016,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>171.1119283333333</v>
+        <v>65.86335866666667</v>
       </c>
       <c r="H26">
-        <v>513.335785</v>
+        <v>197.590076</v>
       </c>
       <c r="I26">
-        <v>0.3920917664622839</v>
+        <v>0.1073155739386204</v>
       </c>
       <c r="J26">
-        <v>0.3921509016454713</v>
+        <v>0.1078011352397391</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>44.3131355</v>
+        <v>43.1011505</v>
       </c>
       <c r="N26">
-        <v>88.626271</v>
+        <v>86.20230100000001</v>
       </c>
       <c r="O26">
-        <v>0.3703811871594727</v>
+        <v>0.4013145655884081</v>
       </c>
       <c r="P26">
-        <v>0.2883888216544467</v>
+        <v>0.3190709442524837</v>
       </c>
       <c r="Q26">
-        <v>7582.50606590129</v>
+        <v>2838.78653432748</v>
       </c>
       <c r="R26">
-        <v>45495.03639540773</v>
+        <v>17032.71920596488</v>
       </c>
       <c r="S26">
-        <v>0.1452234139377554</v>
+        <v>0.04306730293604815</v>
       </c>
       <c r="T26">
-        <v>0.1130919364362663</v>
+        <v>0.03439621001243324</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,10 +2078,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>171.1119283333333</v>
+        <v>65.86335866666667</v>
       </c>
       <c r="H27">
-        <v>513.335785</v>
+        <v>197.590076</v>
       </c>
       <c r="I27">
-        <v>0.3920917664622839</v>
+        <v>0.1073155739386204</v>
       </c>
       <c r="J27">
-        <v>0.3921509016454713</v>
+        <v>0.1078011352397391</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>44.872277</v>
       </c>
       <c r="O27">
-        <v>0.1250182144134117</v>
+        <v>0.1392685047639097</v>
       </c>
       <c r="P27">
-        <v>0.1460138505543343</v>
+        <v>0.1660911556542906</v>
       </c>
       <c r="Q27">
-        <v>2559.393948725827</v>
+        <v>985.1462914136725</v>
       </c>
       <c r="R27">
-        <v>23034.54553853244</v>
+        <v>8866.316622723054</v>
       </c>
       <c r="S27">
-        <v>0.04901861252931517</v>
+        <v>0.01494567952031246</v>
       </c>
       <c r="T27">
-        <v>0.05725946314760928</v>
+        <v>0.01790481513281273</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,10 +2140,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>171.1119283333333</v>
+        <v>65.86335866666667</v>
       </c>
       <c r="H28">
-        <v>513.335785</v>
+        <v>197.590076</v>
       </c>
       <c r="I28">
-        <v>0.3920917664622839</v>
+        <v>0.1073155739386204</v>
       </c>
       <c r="J28">
-        <v>0.3921509016454713</v>
+        <v>0.1078011352397391</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>14.891776</v>
+        <v>21.215307</v>
       </c>
       <c r="N28">
-        <v>44.675328</v>
+        <v>63.645921</v>
       </c>
       <c r="O28">
-        <v>0.124469496720514</v>
+        <v>0.197535602037577</v>
       </c>
       <c r="P28">
-        <v>0.1453729808731985</v>
+        <v>0.2355803020999286</v>
       </c>
       <c r="Q28">
-        <v>2548.160507668053</v>
+        <v>1397.311374164444</v>
       </c>
       <c r="R28">
-        <v>22933.44456901248</v>
+        <v>12575.80236748</v>
       </c>
       <c r="S28">
-        <v>0.0488034648398178</v>
+        <v>0.0211986465059735</v>
       </c>
       <c r="T28">
-        <v>0.05700814552431464</v>
+        <v>0.02539582400649299</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,13 +2202,13 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>171.1119283333333</v>
+        <v>65.86335866666667</v>
       </c>
       <c r="H29">
-        <v>513.335785</v>
+        <v>197.590076</v>
       </c>
       <c r="I29">
-        <v>0.3920917664622839</v>
+        <v>0.1073155739386204</v>
       </c>
       <c r="J29">
-        <v>0.3921509016454713</v>
+        <v>0.1078011352397391</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>7.297570499999999</v>
+        <v>8.932031500000001</v>
       </c>
       <c r="N29">
-        <v>14.595141</v>
+        <v>17.864063</v>
       </c>
       <c r="O29">
-        <v>0.06099507052869112</v>
+        <v>0.08316609416828624</v>
       </c>
       <c r="P29">
-        <v>0.04749241356290961</v>
+        <v>0.06612240489492104</v>
       </c>
       <c r="Q29">
-        <v>1248.701360403447</v>
+        <v>588.2935943064648</v>
       </c>
       <c r="R29">
-        <v>7492.208162420684</v>
+        <v>3529.761565838789</v>
       </c>
       <c r="S29">
-        <v>0.02391566494908609</v>
+        <v>0.008925017127902992</v>
       </c>
       <c r="T29">
-        <v>0.01862419280001461</v>
+        <v>0.007128070312454168</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,13 +2264,13 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>171.1119283333333</v>
+        <v>65.86335866666667</v>
       </c>
       <c r="H30">
-        <v>513.335785</v>
+        <v>197.590076</v>
       </c>
       <c r="I30">
-        <v>0.3920917664622839</v>
+        <v>0.1073155739386204</v>
       </c>
       <c r="J30">
-        <v>0.3921509016454713</v>
+        <v>0.1078011352397391</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>29.34831033333333</v>
+        <v>7.405844333333333</v>
       </c>
       <c r="N30">
-        <v>88.04493099999999</v>
+        <v>22.217533</v>
       </c>
       <c r="O30">
-        <v>0.2453011257211672</v>
+        <v>0.06895577419556446</v>
       </c>
       <c r="P30">
-        <v>0.2864971482748841</v>
+        <v>0.0822364269982853</v>
       </c>
       <c r="Q30">
-        <v>5021.845974461759</v>
+        <v>487.7737815558343</v>
       </c>
       <c r="R30">
-        <v>45196.61377015583</v>
+        <v>4389.964034002508</v>
       </c>
       <c r="S30">
-        <v>0.09618055169919923</v>
+        <v>0.007400028484178914</v>
       </c>
       <c r="T30">
-        <v>0.1123501150148521</v>
+        <v>0.008865180188475085</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>65.86335866666667</v>
+      </c>
+      <c r="H31">
+        <v>197.590076</v>
+      </c>
+      <c r="I31">
+        <v>0.1073155739386204</v>
+      </c>
+      <c r="J31">
+        <v>0.1078011352397391</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>11.78815666666667</v>
+      </c>
+      <c r="N31">
+        <v>35.36447</v>
+      </c>
+      <c r="O31">
+        <v>0.1097594592462545</v>
+      </c>
+      <c r="P31">
+        <v>0.1308987661000909</v>
+      </c>
+      <c r="Q31">
+        <v>776.4075905555245</v>
+      </c>
+      <c r="R31">
+        <v>6987.668314999722</v>
+      </c>
+      <c r="S31">
+        <v>0.01177889936420442</v>
+      </c>
+      <c r="T31">
+        <v>0.01411103558707087</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>429.2500763333333</v>
+      </c>
+      <c r="H32">
+        <v>1287.750229</v>
+      </c>
+      <c r="I32">
+        <v>0.6994058492832651</v>
+      </c>
+      <c r="J32">
+        <v>0.7025703891699194</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>43.1011505</v>
+      </c>
+      <c r="N32">
+        <v>86.20230100000001</v>
+      </c>
+      <c r="O32">
+        <v>0.4013145655884081</v>
+      </c>
+      <c r="P32">
+        <v>0.3190709442524837</v>
+      </c>
+      <c r="Q32">
+        <v>18501.17214217949</v>
+      </c>
+      <c r="R32">
+        <v>111007.0328530769</v>
+      </c>
+      <c r="S32">
+        <v>0.2806817545751052</v>
+      </c>
+      <c r="T32">
+        <v>0.2241697974762811</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>429.2500763333333</v>
+      </c>
+      <c r="H33">
+        <v>1287.750229</v>
+      </c>
+      <c r="I33">
+        <v>0.6994058492832651</v>
+      </c>
+      <c r="J33">
+        <v>0.7025703891699194</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>14.95742566666667</v>
+      </c>
+      <c r="N33">
+        <v>44.872277</v>
+      </c>
+      <c r="O33">
+        <v>0.1392685047639097</v>
+      </c>
+      <c r="P33">
+        <v>0.1660911556542906</v>
+      </c>
+      <c r="Q33">
+        <v>6420.476109166826</v>
+      </c>
+      <c r="R33">
+        <v>57784.28498250143</v>
+      </c>
+      <c r="S33">
+        <v>0.09740520685281272</v>
+      </c>
+      <c r="T33">
+        <v>0.1166907278657166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>429.2500763333333</v>
+      </c>
+      <c r="H34">
+        <v>1287.750229</v>
+      </c>
+      <c r="I34">
+        <v>0.6994058492832651</v>
+      </c>
+      <c r="J34">
+        <v>0.7025703891699194</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>21.215307</v>
+      </c>
+      <c r="N34">
+        <v>63.645921</v>
+      </c>
+      <c r="O34">
+        <v>0.197535602037577</v>
+      </c>
+      <c r="P34">
+        <v>0.2355803020999286</v>
+      </c>
+      <c r="Q34">
+        <v>9106.6721491851</v>
+      </c>
+      <c r="R34">
+        <v>81960.04934266591</v>
+      </c>
+      <c r="S34">
+        <v>0.1381575555067726</v>
+      </c>
+      <c r="T34">
+        <v>0.165511744527114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>429.2500763333333</v>
+      </c>
+      <c r="H35">
+        <v>1287.750229</v>
+      </c>
+      <c r="I35">
+        <v>0.6994058492832651</v>
+      </c>
+      <c r="J35">
+        <v>0.7025703891699194</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>8.932031500000001</v>
+      </c>
+      <c r="N35">
+        <v>17.864063</v>
+      </c>
+      <c r="O35">
+        <v>0.08316609416828624</v>
+      </c>
+      <c r="P35">
+        <v>0.06612240489492104</v>
+      </c>
+      <c r="Q35">
+        <v>3834.075203186738</v>
+      </c>
+      <c r="R35">
+        <v>23004.45121912043</v>
+      </c>
+      <c r="S35">
+        <v>0.05816685272334224</v>
+      </c>
+      <c r="T35">
+        <v>0.04645564373987566</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>171.1119283333333</v>
-      </c>
-      <c r="H31">
-        <v>513.335785</v>
-      </c>
-      <c r="I31">
-        <v>0.3920917664622839</v>
-      </c>
-      <c r="J31">
-        <v>0.3921509016454713</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>8.833753666666667</v>
-      </c>
-      <c r="N31">
-        <v>26.501261</v>
-      </c>
-      <c r="O31">
-        <v>0.07383490545674307</v>
-      </c>
-      <c r="P31">
-        <v>0.08623478508022686</v>
-      </c>
-      <c r="Q31">
-        <v>1511.560624324987</v>
-      </c>
-      <c r="R31">
-        <v>13604.04561892489</v>
-      </c>
-      <c r="S31">
-        <v>0.02895005850711011</v>
-      </c>
-      <c r="T31">
-        <v>0.0338170487224144</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>429.2500763333333</v>
+      </c>
+      <c r="H36">
+        <v>1287.750229</v>
+      </c>
+      <c r="I36">
+        <v>0.6994058492832651</v>
+      </c>
+      <c r="J36">
+        <v>0.7025703891699194</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>7.405844333333333</v>
+      </c>
+      <c r="N36">
+        <v>22.217533</v>
+      </c>
+      <c r="O36">
+        <v>0.06895577419556446</v>
+      </c>
+      <c r="P36">
+        <v>0.0822364269982853</v>
+      </c>
+      <c r="Q36">
+        <v>3178.959245396117</v>
+      </c>
+      <c r="R36">
+        <v>28610.63320856506</v>
+      </c>
+      <c r="S36">
+        <v>0.04822807181423382</v>
+      </c>
+      <c r="T36">
+        <v>0.05777687852012897</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>429.2500763333333</v>
+      </c>
+      <c r="H37">
+        <v>1287.750229</v>
+      </c>
+      <c r="I37">
+        <v>0.6994058492832651</v>
+      </c>
+      <c r="J37">
+        <v>0.7025703891699194</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>11.78815666666667</v>
+      </c>
+      <c r="N37">
+        <v>35.36447</v>
+      </c>
+      <c r="O37">
+        <v>0.1097594592462545</v>
+      </c>
+      <c r="P37">
+        <v>0.1308987661000909</v>
+      </c>
+      <c r="Q37">
+        <v>5060.067148995959</v>
+      </c>
+      <c r="R37">
+        <v>45540.60434096363</v>
+      </c>
+      <c r="S37">
+        <v>0.07676640781099853</v>
+      </c>
+      <c r="T37">
+        <v>0.09196559704080312</v>
       </c>
     </row>
   </sheetData>
